--- a/data/metadata/Informe-05-0709-070904-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-05-0709-070904-A-TC-TM-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
   <si>
     <t>n-accidentes</t>
   </si>
@@ -58,7 +58,7 @@
     <t>iaest-measure:n-accidentes</t>
   </si>
   <si>
-    <t>iaest-dimension:temporalidad</t>
+    <t>iaest-measure:temporalidad</t>
   </si>
   <si>
     <t>null</t>
@@ -70,12 +70,15 @@
     <t>iaest-measure:municipio</t>
   </si>
   <si>
-    <t>iaest-dimension:sector-descripcion</t>
+    <t>iaest-measure:sector-descripcion</t>
   </si>
   <si>
     <t>iaest-measure:orden</t>
   </si>
   <si>
+    <t>iaest-measure:direccion-provincial-nombre</t>
+  </si>
+  <si>
     <t>sdmx-dimension:refArea</t>
   </si>
   <si>
@@ -91,19 +94,10 @@
     <t>skos:Concept</t>
   </si>
   <si>
-    <t>URI-Provincia</t>
-  </si>
-  <si>
     <t>URI-comarca</t>
   </si>
   <si>
-    <t>mapping-temporalidad.xlsx</t>
-  </si>
-  <si>
     <t>mapping-ano.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-sector-descripcion.xlsx</t>
   </si>
 </sst>
 </file>
@@ -245,15 +239,15 @@
         <v>21</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>23</v>
@@ -262,13 +256,13 @@
         <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>23</v>
@@ -283,21 +277,21 @@
         <v>16</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>25</v>
@@ -306,13 +300,13 @@
         <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>25</v>
@@ -327,24 +321,18 @@
         <v>16</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5">
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-05-0709-070904-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-05-0709-070904-A-TC-TM-TP.xlsx
@@ -11,90 +11,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
-  <si>
-    <t>n-accidentes</t>
-  </si>
-  <si>
-    <t>temporalidad</t>
-  </si>
-  <si>
-    <t>codigo</t>
-  </si>
-  <si>
-    <t>ano</t>
-  </si>
-  <si>
-    <t>comarca-codigo</t>
-  </si>
-  <si>
-    <t>municipio</t>
-  </si>
-  <si>
-    <t>sector-descripcion</t>
-  </si>
-  <si>
-    <t>ccaa-codigo</t>
-  </si>
-  <si>
-    <t>sector-codigo</t>
-  </si>
-  <si>
-    <t>direccion-provincial-codigo</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
+  <si>
+    <t>Comarca Código</t>
+  </si>
+  <si>
+    <t>Orden</t>
+  </si>
+  <si>
+    <t>Nº Accidentes</t>
+  </si>
+  <si>
+    <t>Dirección Provincial Código</t>
+  </si>
+  <si>
+    <t>Temporalidad</t>
+  </si>
+  <si>
+    <t>Comarca Nombre</t>
+  </si>
+  <si>
+    <t>Sector Código</t>
+  </si>
+  <si>
+    <t>Municipio</t>
+  </si>
+  <si>
+    <t>Dirección Provincial Nombre</t>
+  </si>
+  <si>
+    <t>CCAA Código</t>
+  </si>
+  <si>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>Sector Descripción</t>
   </si>
   <si>
     <t>orden</t>
   </si>
   <si>
-    <t>direccion-provincial-nombre</t>
-  </si>
-  <si>
-    <t>comarca-nombre</t>
+    <t>Año</t>
   </si>
   <si>
     <t>iaest-measure:</t>
   </si>
   <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>iaest-measure:orden</t>
+  </si>
+  <si>
     <t>iaest-measure:n-accidentes</t>
   </si>
   <si>
     <t>iaest-measure:temporalidad</t>
   </si>
   <si>
-    <t>null</t>
+    <t>sdmx-dimension:refArea</t>
+  </si>
+  <si>
+    <t>iaest-measure:municipio</t>
+  </si>
+  <si>
+    <t>iaest-measure:direccion-provincial-nombre</t>
+  </si>
+  <si>
+    <t>iaest-measure:sector-descripcion</t>
   </si>
   <si>
     <t>sdmx-dimension:refPeriod</t>
   </si>
   <si>
-    <t>iaest-measure:municipio</t>
-  </si>
-  <si>
-    <t>iaest-measure:sector-descripcion</t>
-  </si>
-  <si>
-    <t>iaest-measure:orden</t>
-  </si>
-  <si>
-    <t>iaest-measure:direccion-provincial-nombre</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
     <t>medida</t>
   </si>
   <si>
     <t>dim</t>
   </si>
   <si>
+    <t>xsd:string</t>
+  </si>
+  <si>
     <t>xsd:int</t>
   </si>
   <si>
-    <t>skos:Concept</t>
-  </si>
-  <si>
     <t>URI-comarca</t>
+  </si>
+  <si>
+    <t>xsd:date</t>
   </si>
   <si>
     <t>mapping-ano.xlsx</t>
@@ -197,142 +203,154 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>22</v>
+      <c r="O2" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="O4" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5">
-      <c r="E5" s="1" t="s">
-        <v>28</v>
+      <c r="O5" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
